--- a/appdata/update_history.xlsx
+++ b/appdata/update_history.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>23-Oct</t>
+          <t>25-Oct</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23-Oct</t>
+          <t>25-Oct</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23-Oct</t>
+          <t>25-Oct</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23-Oct</t>
+          <t>25-Oct</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>23-Oct</t>
+          <t>25-Oct</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>23-Oct</t>
+          <t>25-Oct</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>23-Oct</t>
+          <t>25-Oct</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/appdata/update_history.xlsx
+++ b/appdata/update_history.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>25-Oct</t>
+          <t>01-Nov</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25-Oct</t>
+          <t>01-Nov</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>25-Oct</t>
+          <t>01-Nov</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>25-Oct</t>
+          <t>01-Nov</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>25-Oct</t>
+          <t>01-Nov</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>25-Oct</t>
+          <t>01-Nov</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>25-Oct</t>
+          <t>01-Nov</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/appdata/update_history.xlsx
+++ b/appdata/update_history.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>01-Nov</t>
+          <t>07-Nov</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>01-Nov</t>
+          <t>07-Nov</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>01-Nov</t>
+          <t>07-Nov</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>01-Nov</t>
+          <t>07-Nov</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>01-Nov</t>
+          <t>07-Nov</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>01-Nov</t>
+          <t>07-Nov</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>01-Nov</t>
+          <t>07-Nov</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/appdata/update_history.xlsx
+++ b/appdata/update_history.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>07-Nov</t>
+          <t>15-Nov</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -507,7 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>07-Nov</t>
+          <t>15-Nov</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>07-Nov</t>
+          <t>15-Nov</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>07-Nov</t>
+          <t>15-Nov</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>07-Nov</t>
+          <t>15-Nov</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>07-Nov</t>
+          <t>15-Nov</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>07-Nov</t>
+          <t>15-Nov</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
